--- a/batch_image_product/excel/input.xlsx
+++ b/batch_image_product/excel/input.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,15 +456,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>错误信息</t>
         </is>
@@ -487,17 +478,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Watercolor_painting_style_a_wh_9361164116025531091.png</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>OverflowError: int too big to convert</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,17 +502,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>a_32K-rendered_white_rabbit_am_1311078683822103459.png</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.311078683822104e+18</v>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" s="2" t="n">
-        <v>45758</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -537,17 +526,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rabbits_painted_in_gongbi-wash_15940559771054323743.png</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>OverflowError: int too big to convert</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,17 +550,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>a_32K-rendered_white_rabbit_am_15981511962731024631.png</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>OverflowError: int too big to convert</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,17 +574,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A_white_ox_from_the_Classic_of_10493507083307464348.png</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>OverflowError: int too big to convert</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/batch_image_product/excel/input.xlsx
+++ b/batch_image_product/excel/input.xlsx
@@ -1,43 +1,449 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>lora</t>
+  </si>
+  <si>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>种子</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>错误信息</t>
+  </si>
+  <si>
+    <t>《麦橘超snake》Majicflus.safetensors</t>
+  </si>
+  <si>
+    <t>Watercolor painting style: a white-furred monkey adorned with golden patterns, wrapped in flowing ribbons that blend gold and white, with mysterious black runes inscribed on the ribbons. The background is filled with clouds and mist, creating a mythical and fantastical atmosphere.</t>
+  </si>
+  <si>
+    <t>Contemporary_Zodiac_Sculpture.safetensors</t>
+  </si>
+  <si>
+    <t>a 32K-rendered white rabbit among jade orchids and butterflies in soft-focus classical brushwork.</t>
+  </si>
+  <si>
+    <t>Rabbits painted in gongbi-wash hybrid textures against a khaki backdrop with antique screens, blending imagism, oil-watercolor fusion, and minimalist Zen aesthetics.</t>
+  </si>
+  <si>
+    <t>Dark_Ghibli.safetensors</t>
+  </si>
+  <si>
+    <t>Hyper_detailed_illustrationFlux.safetensors</t>
+  </si>
+  <si>
+    <t>A white ox from the "Classic of Mountains and Seas" with intricate hair textures for hyper-realism, rendered in high-definition gongbi brushwork.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +452,330 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,177 +1058,97 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>lora</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>关键词</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>文件名</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>种子</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>错误信息</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>《麦橘超snake》Majicflus.safetensors</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Watercolor painting style: a white-furred monkey adorned with golden patterns, wrapped in flowing ribbons that blend gold and white, with mysterious black runes inscribed on the ribbons. The background is filled with clouds and mist, creating a mythical and fantastical atmosphere.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contemporary_Zodiac_Sculpture.safetensors</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>a 32K-rendered white rabbit among jade orchids and butterflies in soft-focus classical brushwork.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Contemporary_Zodiac_Sculpture.safetensors</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rabbits painted in gongbi-wash hybrid textures against a khaki backdrop with antique screens, blending imagism, oil-watercolor fusion, and minimalist Zen aesthetics.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Dark_Ghibli.safetensors</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>a 32K-rendered white rabbit among jade orchids and butterflies in soft-focus classical brushwork.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hyper_detailed_illustrationFlux.safetensors</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>A white ox from the "Classic of Mountains and Seas" with intricate hair textures for hyper-realism, rendered in high-definition gongbi brushwork.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>